--- a/UI Automation XYZ Bank Cyress E2E With POM Test Case.xlsx
+++ b/UI Automation XYZ Bank Cyress E2E With POM Test Case.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="615" windowWidth="15975" windowHeight="7110" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Customer" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Bank Manager" sheetId="2" r:id="rId5"/>
+    <sheet name="Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank Manager" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,19 +19,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Automation Testing Project : </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.globalsqa.com/angularJs-protractor/BankingProject/#/login</t>
     </r>
@@ -98,16 +101,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -115,8 +120,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Hermoine Granger"</t>
     </r>
@@ -144,16 +150,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -161,8 +169,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Harry Potter"</t>
     </r>
@@ -187,16 +196,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -204,8 +215,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. Ron Weasly"</t>
     </r>
@@ -230,16 +242,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -247,8 +261,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Albus Dumbledore"</t>
     </r>
@@ -286,16 +301,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -303,8 +320,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Hermoine Granger"</t>
     </r>
@@ -339,16 +357,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -356,8 +376,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Hermoine Granger"</t>
     </r>
@@ -401,16 +422,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -418,8 +441,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2.""Hermoine Granger
 3. 100</t>
@@ -459,16 +483,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -476,8 +502,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2.""Hermoine Granger
 3. 100</t>
@@ -517,16 +544,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -534,8 +563,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2.""Hermoine Granger
 3. 100</t>
@@ -581,16 +611,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -598,8 +630,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Hermoine Granger"
 3. 100</t>
@@ -641,16 +674,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">https://www.globalsqa.com/angular
 Js-protractor/BankingProject/#/login
@@ -658,8 +693,9 @@
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="10"/>
         <color rgb="FF32425F"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2. "Hermoine Granger"</t>
     </r>
@@ -678,19 +714,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Automation Testing Project : </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
         <b/>
+        <u/>
+        <sz val="12"/>
         <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.globalsqa.com/angularJs-protractor/BankingProject/#/login</t>
     </r>
@@ -746,13 +782,6 @@
 7. Manager click submit add customer</t>
   </si>
   <si>
-    <t>1. https://www.globalsqa.com/angular
-Js-protractor/BankingProject/#/login
-2. "Alderan"
-3. "Robi"
-4. "12345"</t>
-  </si>
-  <si>
     <t>1. Navigate to homepage XYZ bank
 2. Navigate to homepage bank manager
 3. Navigate to add customer page
@@ -1268,14 +1297,21 @@
 Js-protractor/BankingProject/#/login
 2. "Albus Dumbledore"</t>
   </si>
+  <si>
+    <t>1. https://www.globalsqa.com/angular
+Js-protractor/BankingProject/#/login
+2. "Wawan"
+3. "Prastyo"
+4. "12345"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -1283,59 +1319,82 @@
     <font>
       <b/>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF32425F"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF32425F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF32425F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1344,7 +1403,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1359,131 +1418,122 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1673,32 +1723,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.13"/>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="11.63"/>
-    <col customWidth="1" min="5" max="5" width="27.88"/>
-    <col customWidth="1" min="6" max="6" width="23.38"/>
-    <col customWidth="1" min="7" max="7" width="25.0"/>
-    <col customWidth="1" min="8" max="8" width="30.75"/>
-    <col customWidth="1" min="9" max="9" width="31.0"/>
-    <col customWidth="1" min="10" max="10" width="31.25"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1"/>
+    <col min="10" max="10" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1767,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1726,7 +1781,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1738,7 +1793,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1750,7 +1805,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1785,537 +1840,546 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="6" t="s">
+      <c r="K6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="6" t="s">
+      <c r="K7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="6" t="s">
+      <c r="K8" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="K9" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="6" t="s">
+      <c r="K10" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="12" t="s">
+      <c r="K12" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="12" t="s">
+      <c r="K13" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="K14" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="5" t="s">
+      <c r="K15" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="K16" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="17"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A26"/>
   </mergeCells>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="K6:K16">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="/login" ref="A1"/>
-    <hyperlink r:id="rId2" location="/login" ref="I6"/>
-    <hyperlink r:id="rId3" location="/login" ref="I7"/>
-    <hyperlink r:id="rId4" location="/login" ref="I8"/>
-    <hyperlink r:id="rId5" location="/login" ref="I9"/>
-    <hyperlink r:id="rId6" location="/login" ref="I10"/>
-    <hyperlink r:id="rId7" location="/login" ref="I11"/>
-    <hyperlink r:id="rId8" location="/login" ref="I12"/>
-    <hyperlink r:id="rId9" location="/login" ref="I13"/>
-    <hyperlink r:id="rId10" location="/login" ref="I14"/>
-    <hyperlink r:id="rId11" location="/login" ref="I15"/>
-    <hyperlink r:id="rId12" location="/login" ref="I16"/>
+    <hyperlink ref="A1" r:id="rId1" location="/login"/>
+    <hyperlink ref="I6" r:id="rId2" location="/login"/>
+    <hyperlink ref="I7" r:id="rId3" location="/login"/>
+    <hyperlink ref="I8" r:id="rId4" location="/login"/>
+    <hyperlink ref="I9" r:id="rId5" location="/login"/>
+    <hyperlink ref="I10" r:id="rId6" location="/login"/>
+    <hyperlink ref="I11" r:id="rId7" location="/login"/>
+    <hyperlink ref="I12" r:id="rId8" location="/login"/>
+    <hyperlink ref="I13" r:id="rId9" location="/login"/>
+    <hyperlink ref="I14" r:id="rId10" location="/login"/>
+    <hyperlink ref="I15" r:id="rId11" location="/login"/>
+    <hyperlink ref="I16" r:id="rId12" location="/login"/>
   </hyperlinks>
-  <drawing r:id="rId13"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.13"/>
-    <col customWidth="1" min="2" max="2" width="33.38"/>
-    <col customWidth="1" min="3" max="3" width="15.38"/>
-    <col customWidth="1" min="4" max="4" width="11.63"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="24.75"/>
-    <col customWidth="1" min="7" max="7" width="29.38"/>
-    <col customWidth="1" min="8" max="8" width="30.5"/>
-    <col customWidth="1" min="9" max="9" width="30.38"/>
-    <col customWidth="1" min="10" max="10" width="35.13"/>
+    <col min="1" max="11" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2330,7 +2394,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2345,7 +2409,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2358,7 +2422,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2371,7 +2435,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2406,770 +2470,788 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="K6" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="E8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="23" t="s">
+      <c r="D9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="25" t="s">
+      <c r="G9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="K9" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="D10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="G10" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="H10" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="J10" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="E11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="D12" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="G12" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="I12" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="G13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="K13" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" s="23" t="s">
+      <c r="D14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="I14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="23" t="s">
+      <c r="D15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="I15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="D16" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="I16" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="D17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="I17" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="23" t="s">
+      <c r="D18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="I18" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="D19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="I19" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="23" t="s">
+      <c r="D20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="21" t="s">
+      <c r="I20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="D21" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="I21" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="23" t="s">
+      <c r="D22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11"/>
-      <c r="B21" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="21" t="s">
+      <c r="I22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="D23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C23" s="21" t="s">
+      <c r="D24" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E23" s="31" t="s">
+      <c r="D25" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="31" t="s">
+      <c r="G25" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="21" t="s">
+      <c r="G26" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="D27" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="13" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="31" t="s">
+      <c r="D28" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H28" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="32" t="s">
+      <c r="I28" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="K28" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="A23:A28"/>
   </mergeCells>
-  <dataValidations>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="K6:K28">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="/login" ref="A1"/>
+    <hyperlink ref="A1" r:id="rId1" location="/login"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>